--- a/src/res/Regel-liste incl fejltekst.xlsx
+++ b/src/res/Regel-liste incl fejltekst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\LPRRegelApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56842821-E629-4858-A4A7-1C5DC421BED5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA85DDC-7C52-4561-8480-D48A24810F9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{11C5110E-1A69-4786-9AA7-9A07F690FF9D}"/>
   </bookViews>
@@ -5195,13 +5195,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9AFEDCBE-9684-4974-8ED3-499761840B42}" name="lpr_3_0_5_11_09_2018_15_45__2" displayName="lpr_3_0_5_11_09_2018_15_45__2" ref="A1:F396" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F396" xr:uid="{FD703D2E-9C86-40F0-B9D3-120176563B67}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter val="null*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F396" xr:uid="{FD703D2E-9C86-40F0-B9D3-120176563B67}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2EA47AC9-E4D9-4836-91E2-191DEDF94019}" uniqueName="1" name="ErrorType" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{D972A294-EBAD-4CA4-8F6E-BDF9A92CDC47}" uniqueName="2" name="RuleGroup" queryTableFieldId="2" dataDxfId="4"/>
@@ -5513,8 +5507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A3DAA-FEAC-4619-860D-F051B6548BEF}">
   <dimension ref="A1:H396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0121A4DD-B970-5AC7-89B4-2DCA67FAE6CF}">
-      <selection activeCell="A187" sqref="A187:XFD187"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0" xr3:uid="{0121A4DD-B970-5AC7-89B4-2DCA67FAE6CF}">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5566,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" hidden="1">
+    <row r="2" spans="1:6" ht="75">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5586,7 +5580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" hidden="1">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5606,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" hidden="1">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -5626,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" hidden="1">
+    <row r="5" spans="1:6" ht="90">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5646,7 +5640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" hidden="1">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5666,7 +5660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" hidden="1">
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" hidden="1">
+    <row r="8" spans="1:6" ht="90">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5706,7 +5700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" hidden="1">
+    <row r="9" spans="1:6" ht="75">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5726,7 +5720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" hidden="1">
+    <row r="10" spans="1:6" ht="75">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75" hidden="1">
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -5766,7 +5760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" hidden="1">
+    <row r="12" spans="1:6" ht="75">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5786,7 +5780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="90" hidden="1">
+    <row r="13" spans="1:6" ht="90">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5806,7 +5800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="105" hidden="1">
+    <row r="14" spans="1:6" ht="105">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5826,7 +5820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" hidden="1">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -5846,7 +5840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" hidden="1">
+    <row r="16" spans="1:6" ht="75">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -5866,7 +5860,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="105" hidden="1">
+    <row r="17" spans="1:6" ht="105">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="105" hidden="1">
+    <row r="18" spans="1:6" ht="105">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -5906,7 +5900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="90" hidden="1">
+    <row r="19" spans="1:6" ht="90">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -5926,7 +5920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" hidden="1">
+    <row r="20" spans="1:6" ht="75">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -5946,7 +5940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="75" hidden="1">
+    <row r="21" spans="1:6" ht="75">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -5966,7 +5960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="75" hidden="1">
+    <row r="22" spans="1:6" ht="75">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -5986,7 +5980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="75" hidden="1">
+    <row r="23" spans="1:6" ht="75">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -6006,7 +6000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="75" hidden="1">
+    <row r="24" spans="1:6" ht="75">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -6026,7 +6020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="90" hidden="1">
+    <row r="25" spans="1:6" ht="90">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -6046,7 +6040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="75" hidden="1">
+    <row r="26" spans="1:6" ht="75">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -6066,7 +6060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75" hidden="1">
+    <row r="27" spans="1:6" ht="75">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -6086,7 +6080,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="75" hidden="1">
+    <row r="28" spans="1:6" ht="75">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="75" hidden="1">
+    <row r="29" spans="1:6" ht="75">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -6126,7 +6120,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="90" hidden="1">
+    <row r="30" spans="1:6" ht="90">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -6146,7 +6140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="120" hidden="1">
+    <row r="31" spans="1:6" ht="120">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -6166,7 +6160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60" hidden="1">
+    <row r="32" spans="1:6" ht="60">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -6186,7 +6180,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" hidden="1">
+    <row r="33" spans="1:6" ht="60">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -6206,7 +6200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="60" hidden="1">
+    <row r="34" spans="1:6" ht="60">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -6226,7 +6220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="60" hidden="1">
+    <row r="35" spans="1:6" ht="60">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -6246,7 +6240,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="75" hidden="1">
+    <row r="36" spans="1:6" ht="75">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -6266,7 +6260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="75" hidden="1">
+    <row r="37" spans="1:6" ht="75">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="75" hidden="1">
+    <row r="38" spans="1:6" ht="75">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -6306,7 +6300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="75" hidden="1">
+    <row r="39" spans="1:6" ht="75">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -6326,7 +6320,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="75" hidden="1">
+    <row r="40" spans="1:6" ht="75">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -6346,7 +6340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="60" hidden="1">
+    <row r="41" spans="1:6" ht="60">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -6366,7 +6360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="75" hidden="1">
+    <row r="42" spans="1:6" ht="75">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -6386,7 +6380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="75" hidden="1">
+    <row r="43" spans="1:6" ht="75">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -6406,7 +6400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="60" hidden="1">
+    <row r="44" spans="1:6" ht="60">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="75" hidden="1">
+    <row r="45" spans="1:6" ht="75">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -6446,7 +6440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="60" hidden="1">
+    <row r="46" spans="1:6" ht="60">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6460,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="75" hidden="1">
+    <row r="47" spans="1:6" ht="75">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -6486,7 +6480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" hidden="1">
+    <row r="48" spans="1:6" ht="60">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="75" hidden="1">
+    <row r="49" spans="1:6" ht="75">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +6520,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="60" hidden="1">
+    <row r="50" spans="1:6" ht="60">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -6546,7 +6540,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="60" hidden="1">
+    <row r="51" spans="1:6" ht="60">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -6566,7 +6560,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="90" hidden="1">
+    <row r="52" spans="1:6" ht="90">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -6586,7 +6580,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="75" hidden="1">
+    <row r="53" spans="1:6" ht="75">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -6606,7 +6600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="90" hidden="1">
+    <row r="54" spans="1:6" ht="90">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -6626,7 +6620,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="120" hidden="1">
+    <row r="55" spans="1:6" ht="120">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -6646,7 +6640,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60" hidden="1">
+    <row r="56" spans="1:6" ht="60">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="60" hidden="1">
+    <row r="57" spans="1:6" ht="60">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -6686,7 +6680,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="75" hidden="1">
+    <row r="58" spans="1:6" ht="75">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -6706,7 +6700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="75" hidden="1">
+    <row r="59" spans="1:6" ht="75">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -6726,7 +6720,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="60" hidden="1">
+    <row r="60" spans="1:6" ht="60">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
@@ -6746,7 +6740,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="60" hidden="1">
+    <row r="61" spans="1:6" ht="60">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="75" hidden="1">
+    <row r="62" spans="1:6" ht="75">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -6786,7 +6780,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="75" hidden="1">
+    <row r="63" spans="1:6" ht="75">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -6806,7 +6800,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="75" hidden="1">
+    <row r="64" spans="1:6" ht="75">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -6826,7 +6820,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="90" hidden="1">
+    <row r="65" spans="1:6" ht="90">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -6846,7 +6840,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="90" hidden="1">
+    <row r="66" spans="1:6" ht="90">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -6866,7 +6860,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="60" hidden="1">
+    <row r="67" spans="1:6" ht="60">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -6886,7 +6880,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="60" hidden="1">
+    <row r="68" spans="1:6" ht="60">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -6906,7 +6900,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="75" hidden="1">
+    <row r="69" spans="1:6" ht="75">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -6926,7 +6920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="60" hidden="1">
+    <row r="70" spans="1:6" ht="60">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
@@ -6946,7 +6940,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="75" hidden="1">
+    <row r="71" spans="1:6" ht="75">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -6966,7 +6960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="60" hidden="1">
+    <row r="72" spans="1:6" ht="60">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -6986,7 +6980,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="75" hidden="1">
+    <row r="73" spans="1:6" ht="75">
       <c r="A73" s="2" t="s">
         <v>6</v>
       </c>
@@ -7006,7 +7000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="60" hidden="1">
+    <row r="74" spans="1:6" ht="60">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -7026,7 +7020,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="60" hidden="1">
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -7046,7 +7040,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="75" hidden="1">
+    <row r="76" spans="1:6" ht="75">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="75" hidden="1">
+    <row r="77" spans="1:6" ht="75">
       <c r="A77" s="2" t="s">
         <v>6</v>
       </c>
@@ -7086,7 +7080,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="90" hidden="1">
+    <row r="78" spans="1:6" ht="90">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -7106,7 +7100,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="105" hidden="1">
+    <row r="79" spans="1:6" ht="105">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -7126,7 +7120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="105" hidden="1">
+    <row r="80" spans="1:6" ht="105">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="105" hidden="1">
+    <row r="81" spans="1:6" ht="105">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
@@ -7166,7 +7160,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="90" hidden="1">
+    <row r="82" spans="1:6" ht="90">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="75" hidden="1">
+    <row r="83" spans="1:6" ht="75">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -7206,7 +7200,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="75" hidden="1">
+    <row r="84" spans="1:6" ht="75">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -7226,7 +7220,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="90" hidden="1">
+    <row r="85" spans="1:6" ht="90">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -7246,7 +7240,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="60" hidden="1">
+    <row r="86" spans="1:6" ht="60">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -7266,7 +7260,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="90" hidden="1">
+    <row r="87" spans="1:6" ht="90">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -7286,7 +7280,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="75" hidden="1">
+    <row r="88" spans="1:6" ht="75">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -7306,7 +7300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="75" hidden="1">
+    <row r="89" spans="1:6" ht="75">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="75" hidden="1">
+    <row r="90" spans="1:6" ht="75">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -7346,7 +7340,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="75" hidden="1">
+    <row r="91" spans="1:6" ht="75">
       <c r="A91" s="2" t="s">
         <v>6</v>
       </c>
@@ -7366,7 +7360,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="105" hidden="1">
+    <row r="92" spans="1:6" ht="105">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -7386,7 +7380,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="195" hidden="1">
+    <row r="93" spans="1:6" ht="195">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -7406,7 +7400,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="105" hidden="1">
+    <row r="94" spans="1:6" ht="105">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -7426,7 +7420,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="75" hidden="1">
+    <row r="95" spans="1:6" ht="75">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -7446,7 +7440,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="75" hidden="1">
+    <row r="96" spans="1:6" ht="75">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -7466,7 +7460,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="75" hidden="1">
+    <row r="97" spans="1:6" ht="75">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -7486,7 +7480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="105" hidden="1">
+    <row r="98" spans="1:6" ht="105">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -7506,7 +7500,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="75" hidden="1">
+    <row r="99" spans="1:6" ht="75">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -7526,7 +7520,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="75" hidden="1">
+    <row r="100" spans="1:6" ht="75">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -7546,7 +7540,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="75" hidden="1">
+    <row r="101" spans="1:6" ht="75">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7560,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="90" hidden="1">
+    <row r="102" spans="1:6" ht="90">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -7586,7 +7580,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="60" hidden="1">
+    <row r="103" spans="1:6" ht="60">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -7606,7 +7600,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="60" hidden="1">
+    <row r="104" spans="1:6" ht="60">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -7626,7 +7620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="75" hidden="1">
+    <row r="105" spans="1:6" ht="75">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -7646,7 +7640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="60" hidden="1">
+    <row r="106" spans="1:6" ht="60">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -7666,7 +7660,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="75" hidden="1">
+    <row r="107" spans="1:6" ht="75">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -7686,7 +7680,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="75" hidden="1">
+    <row r="108" spans="1:6" ht="75">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -7706,7 +7700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="90" hidden="1">
+    <row r="109" spans="1:6" ht="90">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7720,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="75" hidden="1">
+    <row r="110" spans="1:6" ht="75">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7740,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="90" hidden="1">
+    <row r="111" spans="1:6" ht="90">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -7766,7 +7760,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="90" hidden="1">
+    <row r="112" spans="1:6" ht="90">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -7786,7 +7780,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="90" hidden="1">
+    <row r="113" spans="1:6" ht="90">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="75" hidden="1">
+    <row r="114" spans="1:6" ht="75">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -7826,7 +7820,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="75" hidden="1">
+    <row r="115" spans="1:6" ht="75">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -7846,7 +7840,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="75" hidden="1">
+    <row r="116" spans="1:6" ht="75">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -7866,7 +7860,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="105" hidden="1">
+    <row r="117" spans="1:6" ht="105">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -7886,7 +7880,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="75" hidden="1">
+    <row r="118" spans="1:6" ht="75">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -7906,7 +7900,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="90" hidden="1">
+    <row r="119" spans="1:6" ht="90">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -7926,7 +7920,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="165" hidden="1">
+    <row r="120" spans="1:6" ht="165">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -7946,7 +7940,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="165" hidden="1">
+    <row r="121" spans="1:6" ht="165">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -7966,7 +7960,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="120" hidden="1">
+    <row r="122" spans="1:6" ht="120">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -7986,7 +7980,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="150" hidden="1">
+    <row r="123" spans="1:6" ht="150">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8000,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="105" hidden="1">
+    <row r="124" spans="1:6" ht="105">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -8026,7 +8020,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="90" hidden="1">
+    <row r="125" spans="1:6" ht="90">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -8046,7 +8040,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="90" hidden="1">
+    <row r="126" spans="1:6" ht="90">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -8066,7 +8060,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="90" hidden="1">
+    <row r="127" spans="1:6" ht="90">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -8086,7 +8080,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="135" hidden="1">
+    <row r="128" spans="1:6" ht="135">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -8106,7 +8100,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="90" hidden="1">
+    <row r="129" spans="1:6" ht="90">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -8126,7 +8120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="90" hidden="1">
+    <row r="130" spans="1:6" ht="90">
       <c r="A130" s="2" t="s">
         <v>6</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="90" hidden="1">
+    <row r="131" spans="1:6" ht="90">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -8166,7 +8160,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="105" hidden="1">
+    <row r="132" spans="1:6" ht="105">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -8186,7 +8180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="135" hidden="1">
+    <row r="133" spans="1:6" ht="135">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
@@ -8206,7 +8200,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="195" hidden="1">
+    <row r="134" spans="1:6" ht="195">
       <c r="A134" s="2" t="s">
         <v>6</v>
       </c>
@@ -8226,7 +8220,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="150" hidden="1">
+    <row r="135" spans="1:6" ht="150">
       <c r="A135" s="2" t="s">
         <v>6</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="195" hidden="1">
+    <row r="136" spans="1:6" ht="195">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
@@ -8266,7 +8260,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="90" hidden="1">
+    <row r="137" spans="1:6" ht="90">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -8286,7 +8280,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="90" hidden="1">
+    <row r="138" spans="1:6" ht="90">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -8306,7 +8300,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="90" hidden="1">
+    <row r="139" spans="1:6" ht="90">
       <c r="A139" s="2" t="s">
         <v>6</v>
       </c>
@@ -8326,7 +8320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="90" hidden="1">
+    <row r="140" spans="1:6" ht="90">
       <c r="A140" s="2" t="s">
         <v>6</v>
       </c>
@@ -8346,7 +8340,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="90" hidden="1">
+    <row r="141" spans="1:6" ht="90">
       <c r="A141" s="2" t="s">
         <v>6</v>
       </c>
@@ -8366,7 +8360,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="105" hidden="1">
+    <row r="142" spans="1:6" ht="105">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -8386,7 +8380,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="90" hidden="1">
+    <row r="143" spans="1:6" ht="90">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -8406,7 +8400,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="90" hidden="1">
+    <row r="144" spans="1:6" ht="90">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -8426,7 +8420,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="120" hidden="1">
+    <row r="145" spans="1:6" ht="120">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -8446,7 +8440,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="90" hidden="1">
+    <row r="146" spans="1:6" ht="90">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
@@ -8466,7 +8460,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="90" hidden="1">
+    <row r="147" spans="1:6" ht="90">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -8486,7 +8480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="90" hidden="1">
+    <row r="148" spans="1:6" ht="90">
       <c r="A148" s="2" t="s">
         <v>6</v>
       </c>
@@ -8506,7 +8500,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="105" hidden="1">
+    <row r="149" spans="1:6" ht="105">
       <c r="A149" s="2" t="s">
         <v>6</v>
       </c>
@@ -8526,7 +8520,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="120" hidden="1">
+    <row r="150" spans="1:6" ht="120">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -8546,7 +8540,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="135" hidden="1">
+    <row r="151" spans="1:6" ht="135">
       <c r="A151" s="2" t="s">
         <v>6</v>
       </c>
@@ -8566,7 +8560,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="90" hidden="1">
+    <row r="152" spans="1:6" ht="90">
       <c r="A152" s="2" t="s">
         <v>6</v>
       </c>
@@ -8586,7 +8580,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="105" hidden="1">
+    <row r="153" spans="1:6" ht="105">
       <c r="A153" s="2" t="s">
         <v>6</v>
       </c>
@@ -8606,7 +8600,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="120" hidden="1">
+    <row r="154" spans="1:6" ht="120">
       <c r="A154" s="2" t="s">
         <v>6</v>
       </c>
@@ -8626,7 +8620,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="135" hidden="1">
+    <row r="155" spans="1:6" ht="135">
       <c r="A155" s="2" t="s">
         <v>6</v>
       </c>
@@ -8646,7 +8640,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="90" hidden="1">
+    <row r="156" spans="1:6" ht="90">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -8666,7 +8660,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="105" hidden="1">
+    <row r="157" spans="1:6" ht="105">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="90" hidden="1">
+    <row r="158" spans="1:6" ht="90">
       <c r="A158" s="2" t="s">
         <v>6</v>
       </c>
@@ -8706,7 +8700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="75" hidden="1">
+    <row r="159" spans="1:6" ht="75">
       <c r="A159" s="2" t="s">
         <v>6</v>
       </c>
@@ -8726,7 +8720,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="75" hidden="1">
+    <row r="160" spans="1:6" ht="75">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -8746,7 +8740,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="90" hidden="1">
+    <row r="161" spans="1:6" ht="90">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -8766,7 +8760,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="75" hidden="1">
+    <row r="162" spans="1:6" ht="75">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -8786,7 +8780,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="90" hidden="1">
+    <row r="163" spans="1:6" ht="90">
       <c r="A163" s="2" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +8800,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="75" hidden="1">
+    <row r="164" spans="1:6" ht="75">
       <c r="A164" s="2" t="s">
         <v>6</v>
       </c>
@@ -8826,7 +8820,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="75" hidden="1">
+    <row r="165" spans="1:6" ht="75">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
@@ -8846,7 +8840,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="105" hidden="1">
+    <row r="166" spans="1:6" ht="105">
       <c r="A166" s="2" t="s">
         <v>6</v>
       </c>
@@ -8866,7 +8860,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="90" hidden="1">
+    <row r="167" spans="1:6" ht="90">
       <c r="A167" s="2" t="s">
         <v>6</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="75" hidden="1">
+    <row r="168" spans="1:6" ht="75">
       <c r="A168" s="2" t="s">
         <v>6</v>
       </c>
@@ -8906,7 +8900,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="75" hidden="1">
+    <row r="169" spans="1:6" ht="75">
       <c r="A169" s="2" t="s">
         <v>6</v>
       </c>
@@ -8926,7 +8920,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="75" hidden="1">
+    <row r="170" spans="1:6" ht="75">
       <c r="A170" s="2" t="s">
         <v>6</v>
       </c>
@@ -8946,7 +8940,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="75" hidden="1">
+    <row r="171" spans="1:6" ht="75">
       <c r="A171" s="2" t="s">
         <v>6</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="105" hidden="1">
+    <row r="172" spans="1:6" ht="105">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
@@ -8986,7 +8980,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="90" hidden="1">
+    <row r="173" spans="1:6" ht="90">
       <c r="A173" s="2" t="s">
         <v>6</v>
       </c>
@@ -9006,7 +9000,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="90" hidden="1">
+    <row r="174" spans="1:6" ht="90">
       <c r="A174" s="2" t="s">
         <v>6</v>
       </c>
@@ -9026,7 +9020,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="90" hidden="1">
+    <row r="175" spans="1:6" ht="90">
       <c r="A175" s="2" t="s">
         <v>6</v>
       </c>
@@ -9046,7 +9040,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="90" hidden="1">
+    <row r="176" spans="1:6" ht="90">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
@@ -9066,7 +9060,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="90" hidden="1">
+    <row r="177" spans="1:6" ht="90">
       <c r="A177" s="2" t="s">
         <v>6</v>
       </c>
@@ -9086,7 +9080,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="75" hidden="1">
+    <row r="178" spans="1:6" ht="75">
       <c r="A178" s="2" t="s">
         <v>6</v>
       </c>
@@ -9106,7 +9100,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="90" hidden="1">
+    <row r="179" spans="1:6" ht="90">
       <c r="A179" s="2" t="s">
         <v>6</v>
       </c>
@@ -9126,7 +9120,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="75" hidden="1">
+    <row r="180" spans="1:6" ht="75">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9140,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="75" hidden="1">
+    <row r="181" spans="1:6" ht="75">
       <c r="A181" s="2" t="s">
         <v>6</v>
       </c>
@@ -9166,7 +9160,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="105" hidden="1">
+    <row r="182" spans="1:6" ht="105">
       <c r="A182" s="2" t="s">
         <v>6</v>
       </c>
@@ -9186,7 +9180,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="75" hidden="1">
+    <row r="183" spans="1:6" ht="75">
       <c r="A183" s="2" t="s">
         <v>6</v>
       </c>
@@ -9206,7 +9200,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="105" hidden="1">
+    <row r="184" spans="1:6" ht="105">
       <c r="A184" s="2" t="s">
         <v>6</v>
       </c>
@@ -9226,7 +9220,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="105" hidden="1">
+    <row r="185" spans="1:6" ht="105">
       <c r="A185" s="2" t="s">
         <v>6</v>
       </c>
@@ -9246,7 +9240,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="90" hidden="1">
+    <row r="186" spans="1:6" ht="90">
       <c r="A186" s="2" t="s">
         <v>6</v>
       </c>
@@ -9266,7 +9260,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="90" hidden="1">
+    <row r="187" spans="1:6" ht="90">
       <c r="A187" s="2" t="s">
         <v>6</v>
       </c>
@@ -9286,7 +9280,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="120" hidden="1">
+    <row r="188" spans="1:6" ht="120">
       <c r="A188" s="2" t="s">
         <v>6</v>
       </c>
@@ -9306,7 +9300,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="150" hidden="1">
+    <row r="189" spans="1:6" ht="150">
       <c r="A189" s="2" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9320,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="180" hidden="1">
+    <row r="190" spans="1:6" ht="180">
       <c r="A190" s="2" t="s">
         <v>6</v>
       </c>
@@ -9346,7 +9340,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="90" hidden="1">
+    <row r="191" spans="1:6" ht="90">
       <c r="A191" s="2" t="s">
         <v>6</v>
       </c>
@@ -9366,7 +9360,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="120" hidden="1">
+    <row r="192" spans="1:6" ht="120">
       <c r="A192" s="2" t="s">
         <v>6</v>
       </c>
@@ -9386,7 +9380,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="150" hidden="1">
+    <row r="193" spans="1:6" ht="150">
       <c r="A193" s="2" t="s">
         <v>6</v>
       </c>
@@ -9406,7 +9400,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="120" hidden="1">
+    <row r="194" spans="1:6" ht="120">
       <c r="A194" s="2" t="s">
         <v>6</v>
       </c>
@@ -9426,7 +9420,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="150" hidden="1">
+    <row r="195" spans="1:6" ht="150">
       <c r="A195" s="2" t="s">
         <v>6</v>
       </c>
@@ -9446,7 +9440,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="120" hidden="1">
+    <row r="196" spans="1:6" ht="120">
       <c r="A196" s="2" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9460,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="195" hidden="1">
+    <row r="197" spans="1:6" ht="195">
       <c r="A197" s="2" t="s">
         <v>6</v>
       </c>
@@ -9486,7 +9480,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="210" hidden="1">
+    <row r="198" spans="1:6" ht="210">
       <c r="A198" s="2" t="s">
         <v>6</v>
       </c>
@@ -9526,7 +9520,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="90" hidden="1">
+    <row r="200" spans="1:6" ht="90">
       <c r="A200" s="2" t="s">
         <v>6</v>
       </c>
@@ -9546,7 +9540,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="180" hidden="1">
+    <row r="201" spans="1:6" ht="180">
       <c r="A201" s="2" t="s">
         <v>6</v>
       </c>
@@ -9566,7 +9560,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="120" hidden="1">
+    <row r="202" spans="1:6" ht="120">
       <c r="A202" s="2" t="s">
         <v>6</v>
       </c>
@@ -9586,7 +9580,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="90" hidden="1">
+    <row r="203" spans="1:6" ht="90">
       <c r="A203" s="2" t="s">
         <v>6</v>
       </c>
@@ -9606,7 +9600,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="180" hidden="1">
+    <row r="204" spans="1:6" ht="180">
       <c r="A204" s="2" t="s">
         <v>6</v>
       </c>
@@ -9626,7 +9620,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="120" hidden="1">
+    <row r="205" spans="1:6" ht="120">
       <c r="A205" s="2" t="s">
         <v>6</v>
       </c>
@@ -9646,7 +9640,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="90" hidden="1">
+    <row r="206" spans="1:6" ht="90">
       <c r="A206" s="2" t="s">
         <v>6</v>
       </c>
@@ -9666,7 +9660,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="180" hidden="1">
+    <row r="207" spans="1:6" ht="180">
       <c r="A207" s="2" t="s">
         <v>6</v>
       </c>
@@ -9686,7 +9680,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="120" hidden="1">
+    <row r="208" spans="1:6" ht="120">
       <c r="A208" s="2" t="s">
         <v>6</v>
       </c>
@@ -9706,7 +9700,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="90" hidden="1">
+    <row r="209" spans="1:6" ht="90">
       <c r="A209" s="2" t="s">
         <v>6</v>
       </c>
@@ -9726,7 +9720,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="180" hidden="1">
+    <row r="210" spans="1:6" ht="180">
       <c r="A210" s="2" t="s">
         <v>6</v>
       </c>
@@ -9746,7 +9740,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="120" hidden="1">
+    <row r="211" spans="1:6" ht="120">
       <c r="A211" s="2" t="s">
         <v>6</v>
       </c>
@@ -9766,7 +9760,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="90" hidden="1">
+    <row r="212" spans="1:6" ht="90">
       <c r="A212" s="2" t="s">
         <v>6</v>
       </c>
@@ -9786,7 +9780,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="180" hidden="1">
+    <row r="213" spans="1:6" ht="180">
       <c r="A213" s="2" t="s">
         <v>6</v>
       </c>
@@ -9806,7 +9800,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="150" hidden="1">
+    <row r="214" spans="1:6" ht="150">
       <c r="A214" s="2" t="s">
         <v>609</v>
       </c>
@@ -9826,7 +9820,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="150" hidden="1">
+    <row r="215" spans="1:6" ht="150">
       <c r="A215" s="2" t="s">
         <v>6</v>
       </c>
@@ -9846,7 +9840,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="90" hidden="1">
+    <row r="216" spans="1:6" ht="90">
       <c r="A216" s="2" t="s">
         <v>6</v>
       </c>
@@ -9866,7 +9860,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="120" hidden="1">
+    <row r="217" spans="1:6" ht="120">
       <c r="A217" s="2" t="s">
         <v>6</v>
       </c>
@@ -9886,7 +9880,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="120" hidden="1">
+    <row r="218" spans="1:6" ht="120">
       <c r="A218" s="2" t="s">
         <v>6</v>
       </c>
@@ -9906,7 +9900,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="90" hidden="1">
+    <row r="219" spans="1:6" ht="90">
       <c r="A219" s="2" t="s">
         <v>6</v>
       </c>
@@ -9926,7 +9920,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="120" hidden="1">
+    <row r="220" spans="1:6" ht="120">
       <c r="A220" s="2" t="s">
         <v>6</v>
       </c>
@@ -9946,7 +9940,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="60" hidden="1">
+    <row r="221" spans="1:6" ht="60">
       <c r="A221" s="2" t="s">
         <v>6</v>
       </c>
@@ -9966,7 +9960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="90" hidden="1">
+    <row r="222" spans="1:6" ht="90">
       <c r="A222" s="2" t="s">
         <v>6</v>
       </c>
@@ -9986,7 +9980,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="120" hidden="1">
+    <row r="223" spans="1:6" ht="120">
       <c r="A223" s="2" t="s">
         <v>6</v>
       </c>
@@ -10006,7 +10000,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="60" hidden="1">
+    <row r="224" spans="1:6" ht="60">
       <c r="A224" s="2" t="s">
         <v>6</v>
       </c>
@@ -10026,7 +10020,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="90" hidden="1">
+    <row r="225" spans="1:6" ht="90">
       <c r="A225" s="2" t="s">
         <v>6</v>
       </c>
@@ -10046,7 +10040,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="120" hidden="1">
+    <row r="226" spans="1:6" ht="120">
       <c r="A226" s="2" t="s">
         <v>6</v>
       </c>
@@ -10066,7 +10060,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="60" hidden="1">
+    <row r="227" spans="1:6" ht="60">
       <c r="A227" s="2" t="s">
         <v>6</v>
       </c>
@@ -10086,7 +10080,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="90" hidden="1">
+    <row r="228" spans="1:6" ht="90">
       <c r="A228" s="2" t="s">
         <v>6</v>
       </c>
@@ -10106,7 +10100,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="120" hidden="1">
+    <row r="229" spans="1:6" ht="120">
       <c r="A229" s="2" t="s">
         <v>6</v>
       </c>
@@ -10126,7 +10120,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="120" hidden="1">
+    <row r="230" spans="1:6" ht="120">
       <c r="A230" s="2" t="s">
         <v>6</v>
       </c>
@@ -10146,7 +10140,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="90" hidden="1">
+    <row r="231" spans="1:6" ht="90">
       <c r="A231" s="2" t="s">
         <v>6</v>
       </c>
@@ -10166,7 +10160,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="120" hidden="1">
+    <row r="232" spans="1:6" ht="120">
       <c r="A232" s="2" t="s">
         <v>6</v>
       </c>
@@ -10186,7 +10180,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="75" hidden="1">
+    <row r="233" spans="1:6" ht="75">
       <c r="A233" s="2" t="s">
         <v>6</v>
       </c>
@@ -10206,7 +10200,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="90" hidden="1">
+    <row r="234" spans="1:6" ht="90">
       <c r="A234" s="2" t="s">
         <v>6</v>
       </c>
@@ -10226,7 +10220,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="120" hidden="1">
+    <row r="235" spans="1:6" ht="120">
       <c r="A235" s="2" t="s">
         <v>6</v>
       </c>
@@ -10246,7 +10240,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="60" hidden="1">
+    <row r="236" spans="1:6" ht="60">
       <c r="A236" s="2" t="s">
         <v>6</v>
       </c>
@@ -10266,7 +10260,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="90" hidden="1">
+    <row r="237" spans="1:6" ht="90">
       <c r="A237" s="2" t="s">
         <v>6</v>
       </c>
@@ -10286,7 +10280,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="120" hidden="1">
+    <row r="238" spans="1:6" ht="120">
       <c r="A238" s="2" t="s">
         <v>6</v>
       </c>
@@ -10306,7 +10300,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="150" hidden="1">
+    <row r="239" spans="1:6" ht="150">
       <c r="A239" s="2" t="s">
         <v>609</v>
       </c>
@@ -10326,7 +10320,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="135" hidden="1">
+    <row r="240" spans="1:6" ht="135">
       <c r="A240" s="2" t="s">
         <v>6</v>
       </c>
@@ -10346,7 +10340,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="105" hidden="1">
+    <row r="241" spans="1:6" ht="105">
       <c r="A241" s="2" t="s">
         <v>6</v>
       </c>
@@ -10366,7 +10360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="120" hidden="1">
+    <row r="242" spans="1:6" ht="120">
       <c r="A242" s="2" t="s">
         <v>6</v>
       </c>
@@ -10386,7 +10380,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="150" hidden="1">
+    <row r="243" spans="1:6" ht="150">
       <c r="A243" s="2" t="s">
         <v>6</v>
       </c>
@@ -10406,7 +10400,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="90" hidden="1">
+    <row r="244" spans="1:6" ht="90">
       <c r="A244" s="2" t="s">
         <v>6</v>
       </c>
@@ -10426,7 +10420,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="120" hidden="1">
+    <row r="245" spans="1:6" ht="120">
       <c r="A245" s="2" t="s">
         <v>6</v>
       </c>
@@ -10446,7 +10440,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="60" hidden="1">
+    <row r="246" spans="1:6" ht="60">
       <c r="A246" s="2" t="s">
         <v>6</v>
       </c>
@@ -10466,7 +10460,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="90" hidden="1">
+    <row r="247" spans="1:6" ht="90">
       <c r="A247" s="2" t="s">
         <v>6</v>
       </c>
@@ -10486,7 +10480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="60" hidden="1">
+    <row r="248" spans="1:6" ht="60">
       <c r="A248" s="2" t="s">
         <v>6</v>
       </c>
@@ -10506,7 +10500,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="90" hidden="1">
+    <row r="249" spans="1:6" ht="90">
       <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
@@ -10526,7 +10520,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="120" hidden="1">
+    <row r="250" spans="1:6" ht="120">
       <c r="A250" s="2" t="s">
         <v>6</v>
       </c>
@@ -10546,7 +10540,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="120" hidden="1">
+    <row r="251" spans="1:6" ht="120">
       <c r="A251" s="2" t="s">
         <v>6</v>
       </c>
@@ -10566,7 +10560,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="90" hidden="1">
+    <row r="252" spans="1:6" ht="90">
       <c r="A252" s="2" t="s">
         <v>6</v>
       </c>
@@ -10586,7 +10580,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="135" hidden="1">
+    <row r="253" spans="1:6" ht="135">
       <c r="A253" s="2" t="s">
         <v>6</v>
       </c>
@@ -10606,7 +10600,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="120" hidden="1">
+    <row r="254" spans="1:6" ht="120">
       <c r="A254" s="2" t="s">
         <v>6</v>
       </c>
@@ -10626,7 +10620,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="90" hidden="1">
+    <row r="255" spans="1:6" ht="90">
       <c r="A255" s="2" t="s">
         <v>6</v>
       </c>
@@ -10646,7 +10640,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="120" hidden="1">
+    <row r="256" spans="1:6" ht="120">
       <c r="A256" s="2" t="s">
         <v>6</v>
       </c>
@@ -10666,7 +10660,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="75" hidden="1">
+    <row r="257" spans="1:6" ht="75">
       <c r="A257" s="2" t="s">
         <v>6</v>
       </c>
@@ -10686,7 +10680,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="90" hidden="1">
+    <row r="258" spans="1:6" ht="90">
       <c r="A258" s="2" t="s">
         <v>6</v>
       </c>
@@ -10706,7 +10700,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="120" hidden="1">
+    <row r="259" spans="1:6" ht="120">
       <c r="A259" s="2" t="s">
         <v>6</v>
       </c>
@@ -10726,7 +10720,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="75" hidden="1">
+    <row r="260" spans="1:6" ht="75">
       <c r="A260" s="2" t="s">
         <v>6</v>
       </c>
@@ -10746,7 +10740,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="90" hidden="1">
+    <row r="261" spans="1:6" ht="90">
       <c r="A261" s="2" t="s">
         <v>6</v>
       </c>
@@ -10766,7 +10760,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="120" hidden="1">
+    <row r="262" spans="1:6" ht="120">
       <c r="A262" s="2" t="s">
         <v>6</v>
       </c>
@@ -10786,7 +10780,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="75" hidden="1">
+    <row r="263" spans="1:6" ht="75">
       <c r="A263" s="2" t="s">
         <v>6</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="90" hidden="1">
+    <row r="264" spans="1:6" ht="90">
       <c r="A264" s="2" t="s">
         <v>6</v>
       </c>
@@ -10826,7 +10820,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="120" hidden="1">
+    <row r="265" spans="1:6" ht="120">
       <c r="A265" s="2" t="s">
         <v>6</v>
       </c>
@@ -10846,7 +10840,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="75" hidden="1">
+    <row r="266" spans="1:6" ht="75">
       <c r="A266" s="2" t="s">
         <v>6</v>
       </c>
@@ -10866,7 +10860,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="90" hidden="1">
+    <row r="267" spans="1:6" ht="90">
       <c r="A267" s="2" t="s">
         <v>6</v>
       </c>
@@ -10886,7 +10880,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="120" hidden="1">
+    <row r="268" spans="1:6" ht="120">
       <c r="A268" s="2" t="s">
         <v>6</v>
       </c>
@@ -10906,7 +10900,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="75" hidden="1">
+    <row r="269" spans="1:6" ht="75">
       <c r="A269" s="2" t="s">
         <v>6</v>
       </c>
@@ -10926,7 +10920,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="90" hidden="1">
+    <row r="270" spans="1:6" ht="90">
       <c r="A270" s="2" t="s">
         <v>6</v>
       </c>
@@ -10946,7 +10940,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="120" hidden="1">
+    <row r="271" spans="1:6" ht="120">
       <c r="A271" s="2" t="s">
         <v>6</v>
       </c>
@@ -10966,7 +10960,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="75" hidden="1">
+    <row r="272" spans="1:6" ht="75">
       <c r="A272" s="2" t="s">
         <v>6</v>
       </c>
@@ -10986,7 +10980,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="90" hidden="1">
+    <row r="273" spans="1:6" ht="90">
       <c r="A273" s="2" t="s">
         <v>6</v>
       </c>
@@ -11006,7 +11000,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="120" hidden="1">
+    <row r="274" spans="1:6" ht="120">
       <c r="A274" s="2" t="s">
         <v>6</v>
       </c>
@@ -11026,7 +11020,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="120" hidden="1">
+    <row r="275" spans="1:6" ht="120">
       <c r="A275" s="2" t="s">
         <v>6</v>
       </c>
@@ -11046,7 +11040,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="90" hidden="1">
+    <row r="276" spans="1:6" ht="90">
       <c r="A276" s="2" t="s">
         <v>6</v>
       </c>
@@ -11066,7 +11060,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="120" hidden="1">
+    <row r="277" spans="1:6" ht="120">
       <c r="A277" s="2" t="s">
         <v>6</v>
       </c>
@@ -11086,7 +11080,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="90" hidden="1">
+    <row r="278" spans="1:6" ht="90">
       <c r="A278" s="2" t="s">
         <v>6</v>
       </c>
@@ -11106,7 +11100,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="120" hidden="1">
+    <row r="279" spans="1:6" ht="120">
       <c r="A279" s="2" t="s">
         <v>6</v>
       </c>
@@ -11126,7 +11120,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="90" hidden="1">
+    <row r="280" spans="1:6" ht="90">
       <c r="A280" s="2" t="s">
         <v>6</v>
       </c>
@@ -11146,7 +11140,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="75" hidden="1">
+    <row r="281" spans="1:6" ht="75">
       <c r="A281" s="2" t="s">
         <v>6</v>
       </c>
@@ -11166,7 +11160,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="90" hidden="1">
+    <row r="282" spans="1:6" ht="90">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
@@ -11186,7 +11180,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="75" hidden="1">
+    <row r="283" spans="1:6" ht="75">
       <c r="A283" s="2" t="s">
         <v>6</v>
       </c>
@@ -11206,7 +11200,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="90" hidden="1">
+    <row r="284" spans="1:6" ht="90">
       <c r="A284" s="2" t="s">
         <v>6</v>
       </c>
@@ -11226,7 +11220,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="75" hidden="1">
+    <row r="285" spans="1:6" ht="75">
       <c r="A285" s="2" t="s">
         <v>6</v>
       </c>
@@ -11246,7 +11240,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="90" hidden="1">
+    <row r="286" spans="1:6" ht="90">
       <c r="A286" s="2" t="s">
         <v>6</v>
       </c>
@@ -11266,7 +11260,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="75" hidden="1">
+    <row r="287" spans="1:6" ht="75">
       <c r="A287" s="2" t="s">
         <v>6</v>
       </c>
@@ -11286,7 +11280,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="150" hidden="1">
+    <row r="288" spans="1:6" ht="150">
       <c r="A288" s="2" t="s">
         <v>609</v>
       </c>
@@ -11306,7 +11300,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="135" hidden="1">
+    <row r="289" spans="1:6" ht="135">
       <c r="A289" s="2" t="s">
         <v>6</v>
       </c>
@@ -11326,7 +11320,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="165" hidden="1">
+    <row r="290" spans="1:6" ht="165">
       <c r="A290" s="2" t="s">
         <v>609</v>
       </c>
@@ -11346,7 +11340,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="165" hidden="1">
+    <row r="291" spans="1:6" ht="165">
       <c r="A291" s="2" t="s">
         <v>6</v>
       </c>
@@ -11366,7 +11360,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="75" hidden="1">
+    <row r="292" spans="1:6" ht="75">
       <c r="A292" s="2" t="s">
         <v>6</v>
       </c>
@@ -11386,7 +11380,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="90" hidden="1">
+    <row r="293" spans="1:6" ht="90">
       <c r="A293" s="2" t="s">
         <v>6</v>
       </c>
@@ -11406,7 +11400,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="120" hidden="1">
+    <row r="294" spans="1:6" ht="120">
       <c r="A294" s="2" t="s">
         <v>6</v>
       </c>
@@ -11426,7 +11420,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="90" hidden="1">
+    <row r="295" spans="1:6" ht="90">
       <c r="A295" s="2" t="s">
         <v>6</v>
       </c>
@@ -11446,7 +11440,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="120" hidden="1">
+    <row r="296" spans="1:6" ht="120">
       <c r="A296" s="2" t="s">
         <v>6</v>
       </c>
@@ -11466,7 +11460,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="120" hidden="1">
+    <row r="297" spans="1:6" ht="120">
       <c r="A297" s="2" t="s">
         <v>6</v>
       </c>
@@ -11486,7 +11480,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="165" hidden="1">
+    <row r="298" spans="1:6" ht="165">
       <c r="A298" s="2" t="s">
         <v>6</v>
       </c>
@@ -11506,7 +11500,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="150" hidden="1">
+    <row r="299" spans="1:6" ht="150">
       <c r="A299" s="2" t="s">
         <v>6</v>
       </c>
@@ -11526,7 +11520,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="150" hidden="1">
+    <row r="300" spans="1:6" ht="150">
       <c r="A300" s="2" t="s">
         <v>6</v>
       </c>
@@ -11546,7 +11540,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="90" hidden="1">
+    <row r="301" spans="1:6" ht="90">
       <c r="A301" s="2" t="s">
         <v>6</v>
       </c>
@@ -11566,7 +11560,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="180" hidden="1">
+    <row r="302" spans="1:6" ht="180">
       <c r="A302" s="2" t="s">
         <v>6</v>
       </c>
@@ -11586,7 +11580,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="210" hidden="1">
+    <row r="303" spans="1:6" ht="210">
       <c r="A303" s="2" t="s">
         <v>6</v>
       </c>
@@ -11606,7 +11600,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="120" hidden="1">
+    <row r="304" spans="1:6" ht="120">
       <c r="A304" s="2" t="s">
         <v>6</v>
       </c>
@@ -11626,7 +11620,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="90" hidden="1">
+    <row r="305" spans="1:6" ht="90">
       <c r="A305" s="2" t="s">
         <v>6</v>
       </c>
@@ -11646,7 +11640,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="210" hidden="1">
+    <row r="306" spans="1:6" ht="210">
       <c r="A306" s="2" t="s">
         <v>6</v>
       </c>
@@ -11666,7 +11660,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="120" hidden="1">
+    <row r="307" spans="1:6" ht="120">
       <c r="A307" s="2" t="s">
         <v>6</v>
       </c>
@@ -11686,7 +11680,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="180" hidden="1">
+    <row r="308" spans="1:6" ht="180">
       <c r="A308" s="2" t="s">
         <v>6</v>
       </c>
@@ -11706,7 +11700,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="165" hidden="1">
+    <row r="309" spans="1:6" ht="165">
       <c r="A309" s="2" t="s">
         <v>609</v>
       </c>
@@ -11726,7 +11720,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="165" hidden="1">
+    <row r="310" spans="1:6" ht="165">
       <c r="A310" s="2" t="s">
         <v>6</v>
       </c>
@@ -11746,7 +11740,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="75" hidden="1">
+    <row r="311" spans="1:6" ht="75">
       <c r="A311" s="2" t="s">
         <v>6</v>
       </c>
@@ -11766,7 +11760,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="180" hidden="1">
+    <row r="312" spans="1:6" ht="180">
       <c r="A312" s="2" t="s">
         <v>6</v>
       </c>
@@ -11786,7 +11780,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="60" hidden="1">
+    <row r="313" spans="1:6" ht="60">
       <c r="A313" s="2" t="s">
         <v>6</v>
       </c>
@@ -11806,7 +11800,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="90" hidden="1">
+    <row r="314" spans="1:6" ht="90">
       <c r="A314" s="2" t="s">
         <v>6</v>
       </c>
@@ -11826,7 +11820,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="120" hidden="1">
+    <row r="315" spans="1:6" ht="120">
       <c r="A315" s="2" t="s">
         <v>6</v>
       </c>
@@ -11846,7 +11840,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="90" hidden="1">
+    <row r="316" spans="1:6" ht="90">
       <c r="A316" s="2" t="s">
         <v>6</v>
       </c>
@@ -11866,7 +11860,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="120" hidden="1">
+    <row r="317" spans="1:6" ht="120">
       <c r="A317" s="2" t="s">
         <v>6</v>
       </c>
@@ -11886,7 +11880,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="120" hidden="1">
+    <row r="318" spans="1:6" ht="120">
       <c r="A318" s="2" t="s">
         <v>6</v>
       </c>
@@ -11906,7 +11900,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="90" hidden="1">
+    <row r="319" spans="1:6" ht="90">
       <c r="A319" s="2" t="s">
         <v>6</v>
       </c>
@@ -11926,7 +11920,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="135" hidden="1">
+    <row r="320" spans="1:6" ht="135">
       <c r="A320" s="2" t="s">
         <v>6</v>
       </c>
@@ -11946,7 +11940,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="120" hidden="1">
+    <row r="321" spans="1:6" ht="120">
       <c r="A321" s="2" t="s">
         <v>6</v>
       </c>
@@ -11966,7 +11960,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="90" hidden="1">
+    <row r="322" spans="1:6" ht="90">
       <c r="A322" s="2" t="s">
         <v>6</v>
       </c>
@@ -11986,7 +11980,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="165" hidden="1">
+    <row r="323" spans="1:6" ht="165">
       <c r="A323" s="2" t="s">
         <v>6</v>
       </c>
@@ -12006,7 +12000,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="120" hidden="1">
+    <row r="324" spans="1:6" ht="120">
       <c r="A324" s="2" t="s">
         <v>6</v>
       </c>
@@ -12026,7 +12020,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="90" hidden="1">
+    <row r="325" spans="1:6" ht="90">
       <c r="A325" s="2" t="s">
         <v>6</v>
       </c>
@@ -12046,7 +12040,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="225" hidden="1">
+    <row r="326" spans="1:6" ht="225">
       <c r="A326" s="2" t="s">
         <v>6</v>
       </c>
@@ -12066,7 +12060,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="120" hidden="1">
+    <row r="327" spans="1:6" ht="120">
       <c r="A327" s="2" t="s">
         <v>6</v>
       </c>
@@ -12086,7 +12080,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="90" hidden="1">
+    <row r="328" spans="1:6" ht="90">
       <c r="A328" s="2" t="s">
         <v>6</v>
       </c>
@@ -12106,7 +12100,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="225" hidden="1">
+    <row r="329" spans="1:6" ht="225">
       <c r="A329" s="2" t="s">
         <v>6</v>
       </c>
@@ -12126,7 +12120,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="90" hidden="1">
+    <row r="330" spans="1:6" ht="90">
       <c r="A330" s="2" t="s">
         <v>6</v>
       </c>
@@ -12146,7 +12140,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="120" hidden="1">
+    <row r="331" spans="1:6" ht="120">
       <c r="A331" s="2" t="s">
         <v>6</v>
       </c>
@@ -12166,7 +12160,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="90" hidden="1">
+    <row r="332" spans="1:6" ht="90">
       <c r="A332" s="2" t="s">
         <v>6</v>
       </c>
@@ -12186,7 +12180,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="120" hidden="1">
+    <row r="333" spans="1:6" ht="120">
       <c r="A333" s="2" t="s">
         <v>6</v>
       </c>
@@ -12206,7 +12200,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="90" hidden="1">
+    <row r="334" spans="1:6" ht="90">
       <c r="A334" s="2" t="s">
         <v>6</v>
       </c>
@@ -12226,7 +12220,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="120" hidden="1">
+    <row r="335" spans="1:6" ht="120">
       <c r="A335" s="2" t="s">
         <v>6</v>
       </c>
@@ -12246,7 +12240,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="90" hidden="1">
+    <row r="336" spans="1:6" ht="90">
       <c r="A336" s="2" t="s">
         <v>6</v>
       </c>
@@ -12266,7 +12260,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="120" hidden="1">
+    <row r="337" spans="1:6" ht="120">
       <c r="A337" s="2" t="s">
         <v>6</v>
       </c>
@@ -12286,7 +12280,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="90" hidden="1">
+    <row r="338" spans="1:6" ht="90">
       <c r="A338" s="2" t="s">
         <v>6</v>
       </c>
@@ -12306,7 +12300,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="120" hidden="1">
+    <row r="339" spans="1:6" ht="120">
       <c r="A339" s="2" t="s">
         <v>6</v>
       </c>
@@ -12326,7 +12320,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="90" hidden="1">
+    <row r="340" spans="1:6" ht="90">
       <c r="A340" s="2" t="s">
         <v>6</v>
       </c>
@@ -12346,7 +12340,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="120" hidden="1">
+    <row r="341" spans="1:6" ht="120">
       <c r="A341" s="2" t="s">
         <v>6</v>
       </c>
@@ -12366,7 +12360,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="90" hidden="1">
+    <row r="342" spans="1:6" ht="90">
       <c r="A342" s="2" t="s">
         <v>6</v>
       </c>
@@ -12386,7 +12380,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="75" hidden="1">
+    <row r="343" spans="1:6" ht="75">
       <c r="A343" s="2" t="s">
         <v>6</v>
       </c>
@@ -12406,7 +12400,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="90" hidden="1">
+    <row r="344" spans="1:6" ht="90">
       <c r="A344" s="2" t="s">
         <v>6</v>
       </c>
@@ -12426,7 +12420,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="75" hidden="1">
+    <row r="345" spans="1:6" ht="75">
       <c r="A345" s="2" t="s">
         <v>6</v>
       </c>
@@ -12446,7 +12440,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="90" hidden="1">
+    <row r="346" spans="1:6" ht="90">
       <c r="A346" s="2" t="s">
         <v>6</v>
       </c>
@@ -12466,7 +12460,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="120" hidden="1">
+    <row r="347" spans="1:6" ht="120">
       <c r="A347" s="2" t="s">
         <v>6</v>
       </c>
@@ -12486,7 +12480,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="90" hidden="1">
+    <row r="348" spans="1:6" ht="90">
       <c r="A348" s="2" t="s">
         <v>6</v>
       </c>
@@ -12506,7 +12500,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="75" hidden="1">
+    <row r="349" spans="1:6" ht="75">
       <c r="A349" s="2" t="s">
         <v>6</v>
       </c>
@@ -12526,7 +12520,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="120" hidden="1">
+    <row r="350" spans="1:6" ht="120">
       <c r="A350" s="2" t="s">
         <v>6</v>
       </c>
@@ -12546,7 +12540,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="135" hidden="1">
+    <row r="351" spans="1:6" ht="135">
       <c r="A351" s="2" t="s">
         <v>6</v>
       </c>
@@ -12566,7 +12560,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="75" hidden="1">
+    <row r="352" spans="1:6" ht="75">
       <c r="A352" s="2" t="s">
         <v>6</v>
       </c>
@@ -12586,7 +12580,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="90" hidden="1">
+    <row r="353" spans="1:6" ht="90">
       <c r="A353" s="2" t="s">
         <v>6</v>
       </c>
@@ -12606,7 +12600,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="120" hidden="1">
+    <row r="354" spans="1:6" ht="120">
       <c r="A354" s="2" t="s">
         <v>6</v>
       </c>
@@ -12626,7 +12620,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="90" hidden="1">
+    <row r="355" spans="1:6" ht="90">
       <c r="A355" s="2" t="s">
         <v>6</v>
       </c>
@@ -12646,7 +12640,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="120" hidden="1">
+    <row r="356" spans="1:6" ht="120">
       <c r="A356" s="2" t="s">
         <v>6</v>
       </c>
@@ -12666,7 +12660,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="75" hidden="1">
+    <row r="357" spans="1:6" ht="75">
       <c r="A357" s="2" t="s">
         <v>6</v>
       </c>
@@ -12686,7 +12680,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="90" hidden="1">
+    <row r="358" spans="1:6" ht="90">
       <c r="A358" s="2" t="s">
         <v>6</v>
       </c>
@@ -12706,7 +12700,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="120" hidden="1">
+    <row r="359" spans="1:6" ht="120">
       <c r="A359" s="2" t="s">
         <v>6</v>
       </c>
@@ -12726,7 +12720,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="90" hidden="1">
+    <row r="360" spans="1:6" ht="90">
       <c r="A360" s="2" t="s">
         <v>6</v>
       </c>
@@ -12746,7 +12740,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="120" hidden="1">
+    <row r="361" spans="1:6" ht="120">
       <c r="A361" s="2" t="s">
         <v>6</v>
       </c>
@@ -12766,7 +12760,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="90" hidden="1">
+    <row r="362" spans="1:6" ht="90">
       <c r="A362" s="2" t="s">
         <v>6</v>
       </c>
@@ -12786,7 +12780,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="120" hidden="1">
+    <row r="363" spans="1:6" ht="120">
       <c r="A363" s="2" t="s">
         <v>6</v>
       </c>
@@ -12806,7 +12800,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="90" hidden="1">
+    <row r="364" spans="1:6" ht="90">
       <c r="A364" s="2" t="s">
         <v>6</v>
       </c>
@@ -12826,7 +12820,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="120" hidden="1">
+    <row r="365" spans="1:6" ht="120">
       <c r="A365" s="2" t="s">
         <v>6</v>
       </c>
@@ -12846,7 +12840,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="90" hidden="1">
+    <row r="366" spans="1:6" ht="90">
       <c r="A366" s="2" t="s">
         <v>6</v>
       </c>
@@ -12866,7 +12860,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="150" hidden="1">
+    <row r="367" spans="1:6" ht="150">
       <c r="A367" s="2" t="s">
         <v>6</v>
       </c>
@@ -12886,7 +12880,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="120" hidden="1">
+    <row r="368" spans="1:6" ht="120">
       <c r="A368" s="2" t="s">
         <v>6</v>
       </c>
@@ -12906,7 +12900,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="90" hidden="1">
+    <row r="369" spans="1:6" ht="90">
       <c r="A369" s="2" t="s">
         <v>6</v>
       </c>
@@ -12926,7 +12920,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="90" hidden="1">
+    <row r="370" spans="1:6" ht="90">
       <c r="A370" s="2" t="s">
         <v>6</v>
       </c>
@@ -12946,7 +12940,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="90" hidden="1">
+    <row r="371" spans="1:6" ht="90">
       <c r="A371" s="2" t="s">
         <v>6</v>
       </c>
@@ -12966,7 +12960,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="105" hidden="1">
+    <row r="372" spans="1:6" ht="105">
       <c r="A372" s="2" t="s">
         <v>6</v>
       </c>
@@ -12986,7 +12980,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="90" hidden="1">
+    <row r="373" spans="1:6" ht="90">
       <c r="A373" s="2" t="s">
         <v>6</v>
       </c>
@@ -13006,7 +13000,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="60" hidden="1">
+    <row r="374" spans="1:6" ht="60">
       <c r="A374" s="2" t="s">
         <v>6</v>
       </c>
@@ -13026,7 +13020,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="90" hidden="1">
+    <row r="375" spans="1:6" ht="90">
       <c r="A375" s="2" t="s">
         <v>6</v>
       </c>
@@ -13046,7 +13040,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="60" hidden="1">
+    <row r="376" spans="1:6" ht="60">
       <c r="A376" s="2" t="s">
         <v>6</v>
       </c>
@@ -13066,7 +13060,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="90" hidden="1">
+    <row r="377" spans="1:6" ht="90">
       <c r="A377" s="2" t="s">
         <v>6</v>
       </c>
@@ -13086,7 +13080,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="60" hidden="1">
+    <row r="378" spans="1:6" ht="60">
       <c r="A378" s="2" t="s">
         <v>6</v>
       </c>
@@ -13106,7 +13100,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="90" hidden="1">
+    <row r="379" spans="1:6" ht="90">
       <c r="A379" s="2" t="s">
         <v>6</v>
       </c>
@@ -13126,7 +13120,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="60" hidden="1">
+    <row r="380" spans="1:6" ht="60">
       <c r="A380" s="2" t="s">
         <v>6</v>
       </c>
@@ -13146,7 +13140,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="90" hidden="1">
+    <row r="381" spans="1:6" ht="90">
       <c r="A381" s="2" t="s">
         <v>6</v>
       </c>
@@ -13166,7 +13160,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="135" hidden="1">
+    <row r="382" spans="1:6" ht="135">
       <c r="A382" s="2" t="s">
         <v>609</v>
       </c>
@@ -13186,7 +13180,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="150" hidden="1">
+    <row r="383" spans="1:6" ht="150">
       <c r="A383" s="2" t="s">
         <v>6</v>
       </c>
@@ -13206,7 +13200,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="75" hidden="1">
+    <row r="384" spans="1:6" ht="75">
       <c r="A384" s="2" t="s">
         <v>6</v>
       </c>
@@ -13226,7 +13220,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="90" hidden="1">
+    <row r="385" spans="1:6" ht="90">
       <c r="A385" s="2" t="s">
         <v>6</v>
       </c>
@@ -13246,7 +13240,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="120" hidden="1">
+    <row r="386" spans="1:6" ht="120">
       <c r="A386" s="2" t="s">
         <v>6</v>
       </c>
@@ -13266,7 +13260,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="90" hidden="1">
+    <row r="387" spans="1:6" ht="90">
       <c r="A387" s="2" t="s">
         <v>6</v>
       </c>
@@ -13286,7 +13280,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="135" hidden="1">
+    <row r="388" spans="1:6" ht="135">
       <c r="A388" s="2" t="s">
         <v>6</v>
       </c>
@@ -13306,7 +13300,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="75" hidden="1">
+    <row r="389" spans="1:6" ht="75">
       <c r="A389" s="2" t="s">
         <v>6</v>
       </c>
@@ -13326,7 +13320,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="90" hidden="1">
+    <row r="390" spans="1:6" ht="90">
       <c r="A390" s="2" t="s">
         <v>6</v>
       </c>
@@ -13346,7 +13340,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="120" hidden="1">
+    <row r="391" spans="1:6" ht="120">
       <c r="A391" s="2" t="s">
         <v>6</v>
       </c>
@@ -13366,7 +13360,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="90" hidden="1">
+    <row r="392" spans="1:6" ht="90">
       <c r="A392" s="2" t="s">
         <v>6</v>
       </c>
@@ -13386,7 +13380,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="120" hidden="1">
+    <row r="393" spans="1:6" ht="120">
       <c r="A393" s="2" t="s">
         <v>6</v>
       </c>
@@ -13406,7 +13400,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="90" hidden="1">
+    <row r="394" spans="1:6" ht="90">
       <c r="A394" s="2" t="s">
         <v>6</v>
       </c>
@@ -13426,7 +13420,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="60" hidden="1">
+    <row r="395" spans="1:6" ht="60">
       <c r="A395" s="2" t="s">
         <v>6</v>
       </c>
@@ -13446,7 +13440,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="90" hidden="1">
+    <row r="396" spans="1:6" ht="90">
       <c r="A396" s="2" t="s">
         <v>6</v>
       </c>
